--- a/Industry/201612-201908/HKD/MILLION/Analysis_51_9.2.1 -  of mink skins_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_51_9.2.1 -  of mink skins_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1152" yWindow="1152"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -90,7 +91,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201712_% Share of overall DX</t>
@@ -5056,6 +5057,169 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="7"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="7"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15.706</v>
+      </c>
+      <c r="C2" t="n">
+        <v>22.016</v>
+      </c>
+      <c r="D2" t="n">
+        <v>40.178</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.609</v>
+      </c>
+      <c r="F2" t="n">
+        <v>12.229</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-44.452</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.826</v>
+      </c>
+      <c r="I2" t="n">
+        <v>18.413</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15.706</v>
+      </c>
+      <c r="C3" t="n">
+        <v>22.016</v>
+      </c>
+      <c r="D3" t="n">
+        <v>40.178</v>
+      </c>
+      <c r="E3" t="n">
+        <v>6.609</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12.229</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-44.452</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7.826</v>
+      </c>
+      <c r="I3" t="n">
+        <v>18.413</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>100</v>
+      </c>
+      <c r="L3" t="n">
+        <v>100</v>
+      </c>
+      <c r="M3" t="n">
+        <v>100</v>
+      </c>
+      <c r="N3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="7"/>
     <col bestFit="1" customWidth="1" max="4" min="3" width="8"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="7"/>

--- a/Industry/201612-201908/HKD/MILLION/Analysis_51_9.2.1 -  of mink skins_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_51_9.2.1 -  of mink skins_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="0" yWindow="132"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -320,7 +320,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt formatCode="##,##0.000" numFmtId="164"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -373,15 +375,22 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,7 +444,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,27 +476,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,24 +510,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,37 +703,41 @@
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="25.21875"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="7"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="7"/>
-    <col bestFit="1" customWidth="1" max="9" min="6" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -768,25 +745,25 @@
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>-100</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,25 +771,25 @@
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>15.706</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>22.016</v>
       </c>
       <c r="D3" t="n">
         <v>40.178</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>6.609</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>12.229</v>
       </c>
       <c r="G3" t="n">
         <v>-44.452</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>7.826</v>
       </c>
       <c r="I3" t="n">
@@ -823,25 +800,25 @@
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>13.647</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>19.987</v>
       </c>
       <c r="D4" t="n">
         <v>46.458</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>6.029</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>9.913</v>
       </c>
       <c r="G4" t="n">
         <v>-50.402</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>4.6</v>
       </c>
       <c r="I4" t="n">
@@ -852,25 +829,25 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>15.706</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>22.045</v>
       </c>
       <c r="D5" t="n">
         <v>40.367</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>6.609</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>12.229</v>
       </c>
       <c r="G5" t="n">
         <v>-44.526</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>7.826</v>
       </c>
       <c r="I5" t="n">
@@ -881,25 +858,25 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>70.15000000000001</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>172.385</v>
       </c>
       <c r="D6" t="n">
         <v>145.739</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>54.433</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>115.587</v>
       </c>
       <c r="G6" t="n">
         <v>-32.949</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>190.054</v>
       </c>
       <c r="I6" t="n">
@@ -910,25 +887,25 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.013</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.018</v>
       </c>
       <c r="D7" t="n">
         <v>35.281</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.019</v>
       </c>
       <c r="G7" t="n">
         <v>5.646</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.005</v>
       </c>
       <c r="I7" t="n">
@@ -939,25 +916,25 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>-100</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -965,25 +942,25 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.013</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.018</v>
       </c>
       <c r="D9" t="n">
         <v>35.251</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.019</v>
       </c>
       <c r="G9" t="n">
         <v>5.669</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.005</v>
       </c>
       <c r="I9" t="n">
@@ -994,25 +971,25 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.068</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.113</v>
       </c>
       <c r="D10" t="n">
         <v>66.92</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2" t="n">
         <v>0.08400000000000001</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2" t="n">
         <v>0.141</v>
       </c>
       <c r="G10" t="n">
         <v>25.31</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>0.189</v>
       </c>
       <c r="I10" t="n">
@@ -1050,47 +1027,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1098,25 +1075,25 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.068</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>0.113</v>
       </c>
       <c r="D2" t="n">
         <v>66.92</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.08400000000000001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.141</v>
       </c>
       <c r="G2" t="n">
         <v>25.31</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.189</v>
       </c>
       <c r="I2" t="n">
@@ -1142,25 +1119,25 @@
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.067</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.111</v>
       </c>
       <c r="D3" t="n">
         <v>66.27800000000001</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.08400000000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.14</v>
       </c>
       <c r="G3" t="n">
         <v>26.333</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.188</v>
       </c>
       <c r="I3" t="n">
@@ -1186,25 +1163,25 @@
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="D4" t="n">
         <v>75.074</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="G4" t="n">
         <v>-11.695</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
@@ -1230,25 +1207,25 @@
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="D5" t="n">
         <v>1140.909</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-20.513</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
@@ -1274,25 +1251,25 @@
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>-54.545</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>520</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
@@ -1318,25 +1295,25 @@
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-100</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="s">
@@ -1362,25 +1339,25 @@
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>342.857</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>-80.645</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
@@ -1406,22 +1383,23 @@
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>300</v>
       </c>
-      <c r="F9" t="n">
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>-100</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
@@ -1441,25 +1419,25 @@
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>-100</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
@@ -1485,22 +1463,22 @@
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>-100</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
@@ -1523,19 +1501,19 @@
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
@@ -1558,19 +1536,19 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
@@ -1593,16 +1571,17 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
@@ -1622,19 +1601,19 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
@@ -1657,19 +1636,19 @@
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
@@ -1692,16 +1671,17 @@
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
@@ -1721,19 +1701,19 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="B18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
@@ -1756,18 +1736,21 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" s="2" t="n"/>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -1779,12 +1762,16 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" s="2" t="n"/>
       <c r="K20" t="n">
         <v>0.003</v>
       </c>
@@ -1793,9 +1780,13 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -1804,9 +1795,13 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
       <c r="J22" t="n">
         <v>0</v>
       </c>
@@ -1815,18 +1810,20 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
+      <c r="H23" s="2" t="n"/>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -1844,12 +1841,15 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
       <c r="J24" t="n">
         <v>0</v>
       </c>
@@ -1861,12 +1861,15 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -1905,47 +1908,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="72" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="72" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1953,25 +1956,25 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.068</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>0.113</v>
       </c>
       <c r="D2" t="n">
         <v>66.92</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.08400000000000001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.141</v>
       </c>
       <c r="G2" t="n">
         <v>25.31</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.189</v>
       </c>
       <c r="I2" t="n">
@@ -1997,25 +2000,25 @@
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.067</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.111</v>
       </c>
       <c r="D3" t="n">
         <v>66.291</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.08400000000000001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.14</v>
       </c>
       <c r="G3" t="n">
         <v>26.331</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.188</v>
       </c>
       <c r="I3" t="n">
@@ -2041,25 +2044,25 @@
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="D4" t="n">
         <v>192.839</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="G4" t="n">
         <v>-23.144</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
@@ -2085,25 +2088,25 @@
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>200</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>-37.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
@@ -2129,19 +2132,20 @@
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>7900</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
@@ -2164,7 +2168,11 @@
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="n">
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
@@ -2175,18 +2183,20 @@
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>-77.77800000000001</v>
       </c>
+      <c r="H8" s="2" t="n"/>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -2204,12 +2214,16 @@
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="2" t="n"/>
       <c r="K9" t="n">
         <v>0.44</v>
       </c>
@@ -2218,12 +2232,16 @@
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" s="2" t="n"/>
       <c r="K10" t="n">
         <v>0.003</v>
       </c>
@@ -2232,21 +2250,23 @@
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n"/>
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>-99.446</v>
       </c>
+      <c r="H11" s="2" t="n"/>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -2264,12 +2284,16 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" s="2" t="n"/>
       <c r="K12" t="n">
         <v>0.001</v>
       </c>
@@ -2285,7 +2309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -2300,236 +2324,258 @@
     <col bestFit="1" customWidth="1" max="6" min="2" width="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="6" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="n"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="n"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="n"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="n"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="n"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="n"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
       <c r="G10" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="n"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n"/>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
+      <c r="H11" s="2" t="n"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -2562,47 +2608,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="9"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2610,25 +2656,25 @@
       <c r="A2" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.586</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>7.141</v>
       </c>
       <c r="D2" t="n">
         <v>1119.075</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.155</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>1.099</v>
       </c>
       <c r="G2" t="n">
         <v>-84.61499999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.289</v>
       </c>
       <c r="I2" t="n">
@@ -2654,25 +2700,25 @@
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.356</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.147</v>
       </c>
       <c r="D3" t="n">
         <v>-58.632</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.079</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="G3" t="n">
         <v>13.298</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.103</v>
       </c>
       <c r="I3" t="n">
@@ -2698,25 +2744,25 @@
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.216</v>
       </c>
       <c r="D4" t="n">
         <v>2212.126</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.015</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.823</v>
       </c>
       <c r="G4" t="n">
         <v>280.201</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.055</v>
       </c>
       <c r="I4" t="n">
@@ -2742,25 +2788,25 @@
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.045</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.5649999999999999</v>
       </c>
       <c r="D5" t="n">
         <v>1145.839</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.049</v>
       </c>
       <c r="G5" t="n">
         <v>-91.36</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.038</v>
       </c>
       <c r="I5" t="n">
@@ -2786,25 +2832,25 @@
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.031</v>
       </c>
       <c r="D6" t="n">
         <v>-48.568</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.014</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.014</v>
       </c>
       <c r="G6" t="n">
         <v>-55.972</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.037</v>
       </c>
       <c r="I6" t="n">
@@ -2830,25 +2876,25 @@
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-8.568</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.011</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.011</v>
       </c>
       <c r="G7" t="n">
         <v>23.627</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.032</v>
       </c>
       <c r="I7" t="n">
@@ -2874,25 +2920,25 @@
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>0.046</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>6.133</v>
       </c>
       <c r="D8" t="n">
         <v>13219.334</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.036</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.036</v>
       </c>
       <c r="G8" t="n">
         <v>-99.414</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.025</v>
       </c>
       <c r="I8" t="n">
@@ -2918,15 +2964,18 @@
       <c r="A9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.017</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>-100</v>
       </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
+      <c r="H9" s="2" t="n"/>
       <c r="J9" t="n">
         <v>0.106</v>
       </c>
@@ -2938,9 +2987,13 @@
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
+      <c r="H10" s="2" t="n"/>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -2949,15 +3002,19 @@
       <c r="A11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.022</v>
       </c>
+      <c r="C11" s="2" t="n"/>
       <c r="D11" t="n">
         <v>0</v>
       </c>
+      <c r="E11" s="2" t="n"/>
+      <c r="F11" s="2" t="n"/>
       <c r="G11" t="n">
         <v>0</v>
       </c>
+      <c r="H11" s="2" t="n"/>
       <c r="J11" t="n">
         <v>0.14</v>
       </c>
@@ -2966,18 +3023,21 @@
       <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.021</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
         <v>0.039</v>
       </c>
       <c r="D12" t="n">
         <v>87.626</v>
       </c>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" s="2" t="n"/>
       <c r="J12" t="n">
         <v>0.133</v>
       </c>
@@ -2996,7 +3056,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
@@ -3011,88 +3071,94 @@
     <col bestFit="1" customWidth="1" max="6" min="2" width="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="6" t="n"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="n"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n"/>
       <c r="G4" t="n">
         <v>0</v>
       </c>
+      <c r="H4" s="2" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3125,47 +3191,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3173,22 +3239,23 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>2.882</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>3.026</v>
       </c>
       <c r="D2" t="n">
         <v>5.001</v>
       </c>
-      <c r="F2" t="n">
+      <c r="E2" s="2" t="n"/>
+      <c r="F2" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="G2" t="n">
         <v>-94.38800000000001</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.021</v>
       </c>
       <c r="J2" t="n">
@@ -3208,25 +3275,25 @@
       <c r="A3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>2.882</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>3.026</v>
       </c>
       <c r="D3" t="n">
         <v>5.001</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="G3" t="n">
         <v>-94.38800000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.021</v>
       </c>
       <c r="I3" t="s">
@@ -3252,15 +3319,17 @@
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n"/>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -3301,32 +3370,32 @@
     <col bestFit="1" customWidth="1" max="8" min="8" width="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3334,19 +3403,19 @@
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
@@ -3357,25 +3426,25 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-100</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
@@ -3386,19 +3455,19 @@
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
@@ -3409,19 +3478,19 @@
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
@@ -3432,16 +3501,17 @@
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n"/>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
@@ -3452,16 +3522,17 @@
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
@@ -3472,25 +3543,25 @@
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>-100</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
@@ -3501,15 +3572,17 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n"/>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -3545,47 +3618,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3593,25 +3666,25 @@
       <c r="A2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>10.681</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>8.865</v>
       </c>
       <c r="D2" t="n">
         <v>-17</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>1.906</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>4.348</v>
       </c>
       <c r="G2" t="n">
         <v>-50.951</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>4.29</v>
       </c>
       <c r="I2" t="n">
@@ -3637,25 +3710,25 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>4.641</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>4.385</v>
       </c>
       <c r="D3" t="n">
         <v>-5.503</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>1.131</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>1.617</v>
       </c>
       <c r="G3" t="n">
         <v>-63.133</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>2.007</v>
       </c>
       <c r="I3" t="n">
@@ -3681,25 +3754,25 @@
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>1.351</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="D4" t="n">
         <v>-61.31</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.474</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>1.409</v>
       </c>
       <c r="G4" t="n">
         <v>169.675</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>1.804</v>
       </c>
       <c r="I4" t="n">
@@ -3725,25 +3798,25 @@
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>1.175</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="D5" t="n">
         <v>-58.884</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.089</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.266</v>
       </c>
       <c r="G5" t="n">
         <v>-44.924</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="I5" t="n">
@@ -3769,25 +3842,25 @@
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.484</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.321</v>
       </c>
       <c r="D6" t="n">
         <v>-33.657</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.212</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.322</v>
       </c>
       <c r="G6" t="n">
         <v>0.204</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.166</v>
       </c>
       <c r="I6" t="n">
@@ -3813,22 +3886,23 @@
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.148</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.127</v>
       </c>
       <c r="D7" t="n">
         <v>-14.51</v>
       </c>
-      <c r="F7" t="n">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n">
         <v>0.5649999999999999</v>
       </c>
       <c r="G7" t="n">
         <v>345.963</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="J7" t="n">
@@ -3848,22 +3922,23 @@
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>2.882</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>3.026</v>
       </c>
       <c r="D8" t="n">
         <v>5.001</v>
       </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="G8" t="n">
         <v>-94.38800000000001</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.021</v>
       </c>
       <c r="J8" t="n">
@@ -3883,15 +3958,17 @@
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n"/>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -3933,47 +4010,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3981,25 +4058,25 @@
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>2.118</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>16.625</v>
       </c>
       <c r="D2" t="n">
         <v>684.864</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>1.928</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>6.493</v>
       </c>
       <c r="G2" t="n">
         <v>-60.942</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>3.725</v>
       </c>
       <c r="I2" t="n">
@@ -4025,25 +4102,25 @@
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>2.057</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>10.462</v>
       </c>
       <c r="D3" t="n">
         <v>408.709</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>1.578</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>6.051</v>
       </c>
       <c r="G3" t="n">
         <v>-42.166</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>2.851</v>
       </c>
       <c r="I3" t="n">
@@ -4069,25 +4146,25 @@
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.062</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.214</v>
       </c>
       <c r="D4" t="n">
         <v>247.155</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.198</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.273</v>
       </c>
       <c r="G4" t="n">
         <v>27.415</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.822</v>
       </c>
       <c r="I4" t="n">
@@ -4113,19 +4190,20 @@
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="n"/>
+      <c r="C5" s="2" t="n">
         <v>0.012</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.105</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.105</v>
       </c>
       <c r="G5" t="n">
         <v>742.967</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.053</v>
       </c>
       <c r="I5" t="n">
@@ -4148,18 +4226,20 @@
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n">
         <v>0.021</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.047</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.065</v>
       </c>
       <c r="G6" t="n">
         <v>209.359</v>
       </c>
+      <c r="H6" s="2" t="n"/>
       <c r="I6" t="n">
         <v>0</v>
       </c>
@@ -4177,12 +4257,16 @@
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="n">
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n">
         <v>5.895</v>
       </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
       <c r="G7" t="n">
         <v>0</v>
       </c>
+      <c r="H7" s="2" t="n"/>
       <c r="K7" t="n">
         <v>3.42</v>
       </c>
@@ -4191,12 +4275,16 @@
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n">
         <v>0.019</v>
       </c>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n"/>
       <c r="G8" t="n">
         <v>0</v>
       </c>
+      <c r="H8" s="2" t="n"/>
       <c r="K8" t="n">
         <v>0.011</v>
       </c>
@@ -4205,12 +4293,16 @@
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
         <v>0.002</v>
       </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="2" t="n"/>
       <c r="K9" t="n">
         <v>0.001</v>
       </c>
@@ -4245,32 +4337,32 @@
     <col bestFit="1" customWidth="1" max="8" min="8" width="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4278,25 +4370,25 @@
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>-100</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
@@ -4307,25 +4399,25 @@
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>-100</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
@@ -4362,32 +4454,32 @@
     <col bestFit="1" customWidth="1" max="8" min="8" width="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4395,19 +4487,19 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
@@ -4418,19 +4510,19 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
@@ -4441,16 +4533,17 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
@@ -4461,19 +4554,19 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
@@ -4484,19 +4577,19 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
@@ -4507,16 +4600,17 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
@@ -4527,16 +4621,17 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
@@ -4547,19 +4642,19 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
@@ -4570,19 +4665,19 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
@@ -4593,19 +4688,19 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
@@ -4616,19 +4711,19 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
@@ -4639,25 +4734,25 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>-100</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
@@ -4668,19 +4763,19 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
@@ -4691,19 +4786,19 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
@@ -4714,19 +4809,19 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
@@ -4737,19 +4832,19 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
@@ -4760,25 +4855,25 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>0.03</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>-100</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
@@ -4789,12 +4884,15 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
       <c r="I19" t="n">
         <v>0</v>
       </c>
@@ -4803,9 +4901,13 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -4814,31 +4916,41 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -4847,12 +4959,15 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
       <c r="I24" t="n">
         <v>0</v>
       </c>
@@ -4861,12 +4976,15 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
       <c r="I25" t="n">
         <v>0</v>
       </c>
@@ -4902,47 +5020,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4950,25 +5068,25 @@
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>15.706</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>22.045</v>
       </c>
       <c r="D2" t="n">
         <v>40.367</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>6.609</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>12.229</v>
       </c>
       <c r="G2" t="n">
         <v>-44.526</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>7.826</v>
       </c>
       <c r="I2" t="n">
@@ -4994,25 +5112,25 @@
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>15.706</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>22.045</v>
       </c>
       <c r="D3" t="n">
         <v>40.367</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>6.609</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>12.229</v>
       </c>
       <c r="G3" t="n">
         <v>-44.526</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>7.826</v>
       </c>
       <c r="I3" t="n">
@@ -5065,47 +5183,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -5113,25 +5231,25 @@
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>15.706</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>22.016</v>
       </c>
       <c r="D2" t="n">
         <v>40.178</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>6.609</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>12.229</v>
       </c>
       <c r="G2" t="n">
         <v>-44.452</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>7.826</v>
       </c>
       <c r="I2" t="n">
@@ -5157,25 +5275,25 @@
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>15.706</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>22.016</v>
       </c>
       <c r="D3" t="n">
         <v>40.178</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>6.609</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>12.229</v>
       </c>
       <c r="G3" t="n">
         <v>-44.452</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>7.826</v>
       </c>
       <c r="I3" t="n">
@@ -5221,52 +5339,56 @@
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="9"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="7"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="7"/>
-    <col bestFit="1" customWidth="1" max="9" min="6" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5274,25 +5396,25 @@
       <c r="A2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>70.15000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>172.385</v>
       </c>
       <c r="D2" t="n">
         <v>145.739</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>54.433</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>115.587</v>
       </c>
       <c r="G2" t="n">
         <v>-32.949</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>190.054</v>
       </c>
       <c r="I2" t="n">
@@ -5318,25 +5440,25 @@
       <c r="A3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>70.15000000000001</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>172.385</v>
       </c>
       <c r="D3" t="n">
         <v>145.739</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>54.433</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>115.587</v>
       </c>
       <c r="G3" t="n">
         <v>-32.949</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>190.054</v>
       </c>
       <c r="I3" t="n">
@@ -5389,47 +5511,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="9"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -5437,25 +5559,25 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>15.706</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>22.045</v>
       </c>
       <c r="D2" t="n">
         <v>40.367</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>6.609</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>12.229</v>
       </c>
       <c r="G2" t="n">
         <v>-44.526</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>7.826</v>
       </c>
       <c r="I2" t="n">
@@ -5481,25 +5603,25 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>4.641</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>4.385</v>
       </c>
       <c r="D3" t="n">
         <v>-5.503</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>1.131</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>1.617</v>
       </c>
       <c r="G3" t="n">
         <v>-63.133</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>2.007</v>
       </c>
       <c r="I3" t="n">
@@ -5525,25 +5647,25 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>3.907</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>5.378</v>
       </c>
       <c r="D4" t="n">
         <v>37.63</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>4.384</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>6.491</v>
       </c>
       <c r="G4" t="n">
         <v>20.7</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>1.856</v>
       </c>
       <c r="I4" t="n">
@@ -5569,25 +5691,25 @@
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>1.351</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="D5" t="n">
         <v>-61.31</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.474</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>1.409</v>
       </c>
       <c r="G5" t="n">
         <v>169.675</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>1.804</v>
       </c>
       <c r="I5" t="n">
@@ -5613,25 +5735,25 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.012</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.11</v>
       </c>
       <c r="D6" t="n">
         <v>795.9400000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.044</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.055</v>
       </c>
       <c r="G6" t="n">
         <v>-49.954</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.993</v>
       </c>
       <c r="I6" t="n">
@@ -5657,22 +5779,23 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.123</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.093</v>
       </c>
       <c r="D7" t="n">
         <v>-24.358</v>
       </c>
-      <c r="F7" t="n">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n">
         <v>0.059</v>
       </c>
       <c r="G7" t="n">
         <v>-36.331</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.358</v>
       </c>
       <c r="J7" t="n">
@@ -5692,25 +5815,25 @@
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>1.175</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="D8" t="n">
         <v>-58.884</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.089</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.266</v>
       </c>
       <c r="G8" t="n">
         <v>-44.924</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="I8" t="n">
@@ -5736,25 +5859,25 @@
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.484</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.321</v>
       </c>
       <c r="D9" t="n">
         <v>-33.657</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.212</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.322</v>
       </c>
       <c r="G9" t="n">
         <v>0.204</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.166</v>
       </c>
       <c r="I9" t="n">
@@ -5780,22 +5903,23 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.148</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.127</v>
       </c>
       <c r="D10" t="n">
         <v>-14.51</v>
       </c>
-      <c r="F10" t="n">
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n">
         <v>0.5649999999999999</v>
       </c>
       <c r="G10" t="n">
         <v>345.963</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="J10" t="n">
@@ -5815,25 +5939,25 @@
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.356</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>0.147</v>
       </c>
       <c r="D11" t="n">
         <v>-58.632</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.079</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="G11" t="n">
         <v>13.298</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>0.103</v>
       </c>
       <c r="I11" t="n">
@@ -5859,25 +5983,25 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
         <v>0.216</v>
       </c>
       <c r="D12" t="n">
         <v>2212.126</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2" t="n">
         <v>0.015</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2" t="n">
         <v>0.823</v>
       </c>
       <c r="G12" t="n">
         <v>280.201</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>0.055</v>
       </c>
       <c r="I12" t="n">
@@ -5903,25 +6027,25 @@
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.323</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
         <v>0.332</v>
       </c>
       <c r="D13" t="n">
         <v>2.934</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2" t="n">
         <v>0.119</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.177</v>
       </c>
       <c r="G13" t="n">
         <v>-46.555</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>0.039</v>
       </c>
       <c r="I13" t="n">
@@ -5947,25 +6071,25 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.045</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
         <v>0.5649999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>1145.839</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2" t="n">
         <v>0.049</v>
       </c>
       <c r="G14" t="n">
         <v>-91.36</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
@@ -5991,25 +6115,25 @@
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
         <v>0.031</v>
       </c>
       <c r="D15" t="n">
         <v>-48.568</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2" t="n">
         <v>0.014</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2" t="n">
         <v>0.014</v>
       </c>
       <c r="G15" t="n">
         <v>-55.972</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2" t="n">
         <v>0.037</v>
       </c>
       <c r="I15" t="n">
@@ -6035,25 +6159,25 @@
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-8.568</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2" t="n">
         <v>0.011</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2" t="n">
         <v>0.011</v>
       </c>
       <c r="G16" t="n">
         <v>23.627</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>0.032</v>
       </c>
       <c r="I16" t="n">
@@ -6079,25 +6203,25 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.046</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>6.133</v>
       </c>
       <c r="D17" t="n">
         <v>13219.334</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>0.036</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2" t="n">
         <v>0.036</v>
       </c>
       <c r="G17" t="n">
         <v>-99.414</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2" t="n">
         <v>0.025</v>
       </c>
       <c r="I17" t="n">
@@ -6123,22 +6247,23 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="2" t="n">
         <v>2.882</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
         <v>3.026</v>
       </c>
       <c r="D18" t="n">
         <v>5.001</v>
       </c>
-      <c r="F18" t="n">
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="G18" t="n">
         <v>-94.38800000000001</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>0.021</v>
       </c>
       <c r="J18" t="n">
@@ -6158,15 +6283,18 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.017</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>-100</v>
       </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
       <c r="J19" t="n">
         <v>0.106</v>
       </c>
@@ -6178,9 +6306,13 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -6189,15 +6321,19 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>0.011</v>
       </c>
+      <c r="C21" s="2" t="n"/>
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" s="2" t="n"/>
       <c r="J21" t="n">
         <v>0.068</v>
       </c>
@@ -6206,15 +6342,19 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="2" t="n">
         <v>0.022</v>
       </c>
+      <c r="C22" s="2" t="n"/>
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
       <c r="G22" t="n">
         <v>0</v>
       </c>
+      <c r="H22" s="2" t="n"/>
       <c r="J22" t="n">
         <v>0.14</v>
       </c>
@@ -6223,15 +6363,17 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -6246,18 +6388,21 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="2" t="n">
         <v>0.021</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
         <v>0.039</v>
       </c>
       <c r="D24" t="n">
         <v>87.626</v>
       </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="2" t="n"/>
       <c r="J24" t="n">
         <v>0.133</v>
       </c>
@@ -6269,18 +6414,21 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="2" t="n">
         <v>0.063</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
         <v>0.127</v>
       </c>
       <c r="D25" t="n">
         <v>101.769</v>
       </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="2" t="n"/>
       <c r="J25" t="n">
         <v>0.399</v>
       </c>
@@ -6319,47 +6467,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="9"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6367,25 +6515,25 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>15.706</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>22.016</v>
       </c>
       <c r="D2" t="n">
         <v>40.178</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>6.609</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>12.229</v>
       </c>
       <c r="G2" t="n">
         <v>-44.452</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>7.826</v>
       </c>
       <c r="I2" t="n">
@@ -6411,25 +6559,25 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>4.641</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>4.356</v>
       </c>
       <c r="D3" t="n">
         <v>-6.141</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>1.131</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>1.617</v>
       </c>
       <c r="G3" t="n">
         <v>-62.883</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>2.007</v>
       </c>
       <c r="I3" t="n">
@@ -6455,25 +6603,25 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>3.907</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>5.378</v>
       </c>
       <c r="D4" t="n">
         <v>37.63</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>4.384</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>6.491</v>
       </c>
       <c r="G4" t="n">
         <v>20.7</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>1.856</v>
       </c>
       <c r="I4" t="n">
@@ -6499,25 +6647,25 @@
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>1.351</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.523</v>
       </c>
       <c r="D5" t="n">
         <v>-61.31</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.474</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>1.409</v>
       </c>
       <c r="G5" t="n">
         <v>169.675</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>1.804</v>
       </c>
       <c r="I5" t="n">
@@ -6543,25 +6691,25 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.012</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.11</v>
       </c>
       <c r="D6" t="n">
         <v>795.9400000000001</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.044</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.055</v>
       </c>
       <c r="G6" t="n">
         <v>-49.954</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.993</v>
       </c>
       <c r="I6" t="n">
@@ -6587,22 +6735,23 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.123</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.093</v>
       </c>
       <c r="D7" t="n">
         <v>-24.358</v>
       </c>
-      <c r="F7" t="n">
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n">
         <v>0.059</v>
       </c>
       <c r="G7" t="n">
         <v>-36.331</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.358</v>
       </c>
       <c r="J7" t="n">
@@ -6622,25 +6771,25 @@
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>1.175</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>0.483</v>
       </c>
       <c r="D8" t="n">
         <v>-58.884</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.089</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.266</v>
       </c>
       <c r="G8" t="n">
         <v>-44.924</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="I8" t="n">
@@ -6666,25 +6815,25 @@
       <c r="A9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.484</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.321</v>
       </c>
       <c r="D9" t="n">
         <v>-33.657</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="2" t="n">
         <v>0.212</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2" t="n">
         <v>0.322</v>
       </c>
       <c r="G9" t="n">
         <v>0.204</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.166</v>
       </c>
       <c r="I9" t="n">
@@ -6710,22 +6859,23 @@
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.148</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>0.127</v>
       </c>
       <c r="D10" t="n">
         <v>-14.51</v>
       </c>
-      <c r="F10" t="n">
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n">
         <v>0.5649999999999999</v>
       </c>
       <c r="G10" t="n">
         <v>345.963</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>0.122</v>
       </c>
       <c r="J10" t="n">
@@ -6745,25 +6895,25 @@
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.356</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>0.147</v>
       </c>
       <c r="D11" t="n">
         <v>-58.632</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.079</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.167</v>
       </c>
       <c r="G11" t="n">
         <v>13.298</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>0.103</v>
       </c>
       <c r="I11" t="n">
@@ -6789,25 +6939,25 @@
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
         <v>0.216</v>
       </c>
       <c r="D12" t="n">
         <v>2212.126</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="2" t="n">
         <v>0.015</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="2" t="n">
         <v>0.823</v>
       </c>
       <c r="G12" t="n">
         <v>280.201</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>0.055</v>
       </c>
       <c r="I12" t="n">
@@ -6833,25 +6983,25 @@
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.323</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
         <v>0.332</v>
       </c>
       <c r="D13" t="n">
         <v>2.934</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2" t="n">
         <v>0.119</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" s="2" t="n">
         <v>0.177</v>
       </c>
       <c r="G13" t="n">
         <v>-46.555</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>0.039</v>
       </c>
       <c r="I13" t="n">
@@ -6877,25 +7027,25 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>0.045</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
         <v>0.5649999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>1145.839</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" s="2" t="n">
         <v>0.049</v>
       </c>
       <c r="G14" t="n">
         <v>-91.36</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>0.038</v>
       </c>
       <c r="I14" t="n">
@@ -6921,25 +7071,25 @@
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>0.06</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
         <v>0.031</v>
       </c>
       <c r="D15" t="n">
         <v>-48.568</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2" t="n">
         <v>0.014</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2" t="n">
         <v>0.014</v>
       </c>
       <c r="G15" t="n">
         <v>-55.972</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2" t="n">
         <v>0.037</v>
       </c>
       <c r="I15" t="n">
@@ -6965,25 +7115,25 @@
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D16" t="n">
         <v>-8.568</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2" t="n">
         <v>0.011</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" s="2" t="n">
         <v>0.011</v>
       </c>
       <c r="G16" t="n">
         <v>23.627</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>0.032</v>
       </c>
       <c r="I16" t="n">
@@ -7009,25 +7159,25 @@
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>0.046</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>6.133</v>
       </c>
       <c r="D17" t="n">
         <v>13219.334</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>0.036</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" s="2" t="n">
         <v>0.036</v>
       </c>
       <c r="G17" t="n">
         <v>-99.414</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2" t="n">
         <v>0.025</v>
       </c>
       <c r="I17" t="n">
@@ -7053,22 +7203,23 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="2" t="n">
         <v>2.882</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
         <v>3.026</v>
       </c>
       <c r="D18" t="n">
         <v>5.001</v>
       </c>
-      <c r="F18" t="n">
+      <c r="E18" s="2" t="n"/>
+      <c r="F18" s="2" t="n">
         <v>0.17</v>
       </c>
       <c r="G18" t="n">
         <v>-94.38800000000001</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>0.021</v>
       </c>
       <c r="J18" t="n">
@@ -7088,15 +7239,18 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="2" t="n">
         <v>0.017</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>-100</v>
       </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
       <c r="J19" t="n">
         <v>0.106</v>
       </c>
@@ -7108,9 +7262,13 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -7119,15 +7277,19 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>0.011</v>
       </c>
+      <c r="C21" s="2" t="n"/>
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" s="2" t="n"/>
       <c r="J21" t="n">
         <v>0.068</v>
       </c>
@@ -7136,15 +7298,19 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="2" t="n">
         <v>0.022</v>
       </c>
+      <c r="C22" s="2" t="n"/>
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
       <c r="G22" t="n">
         <v>0</v>
       </c>
+      <c r="H22" s="2" t="n"/>
       <c r="J22" t="n">
         <v>0.14</v>
       </c>
@@ -7153,15 +7319,17 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -7176,18 +7344,21 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="2" t="n">
         <v>0.021</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
         <v>0.039</v>
       </c>
       <c r="D24" t="n">
         <v>87.626</v>
       </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="2" t="n"/>
       <c r="J24" t="n">
         <v>0.133</v>
       </c>
@@ -7199,18 +7370,21 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="2" t="n">
         <v>0.063</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
         <v>0.127</v>
       </c>
       <c r="D25" t="n">
         <v>101.769</v>
       </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="2" t="n"/>
       <c r="J25" t="n">
         <v>0.399</v>
       </c>
@@ -7242,55 +7416,56 @@
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="20.21875"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="7"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="7.5546875"/>
     <col bestFit="1" customWidth="1" max="4" min="4" width="9"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="7"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="7.5546875"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="9"/>
-    <col bestFit="1" customWidth="1" max="9" min="8" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -7298,25 +7473,25 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>70.15000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>172.385</v>
       </c>
       <c r="D2" t="n">
         <v>145.739</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>54.433</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>115.587</v>
       </c>
       <c r="G2" t="n">
         <v>-32.949</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>190.054</v>
       </c>
       <c r="I2" t="n">
@@ -7342,25 +7517,25 @@
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>67.852</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>155.776</v>
       </c>
       <c r="D3" t="n">
         <v>129.582</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>52.41</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>109.049</v>
       </c>
       <c r="G3" t="n">
         <v>-29.996</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>186.305</v>
       </c>
       <c r="I3" t="n">
@@ -7386,25 +7561,25 @@
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.355</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>4.817</v>
       </c>
       <c r="D4" t="n">
         <v>1257.515</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>1.136</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>4.414</v>
       </c>
       <c r="G4" t="n">
         <v>-8.374000000000001</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>2.393</v>
       </c>
       <c r="I4" t="n">
@@ -7430,25 +7605,25 @@
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>1.411</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>5.177</v>
       </c>
       <c r="D5" t="n">
         <v>266.832</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.676</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>1.876</v>
       </c>
       <c r="G5" t="n">
         <v>-63.753</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>1.021</v>
       </c>
       <c r="I5" t="n">
@@ -7474,25 +7649,25 @@
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>0.274</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="D6" t="n">
         <v>-96.55</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.098</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.11</v>
       </c>
       <c r="G6" t="n">
         <v>1064.475</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.247</v>
       </c>
       <c r="I6" t="n">
@@ -7518,25 +7693,25 @@
       <c r="A7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.07199999999999999</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.442</v>
       </c>
       <c r="D7" t="n">
         <v>512.045</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="2" t="n">
         <v>0.075</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
         <v>0.075</v>
       </c>
       <c r="G7" t="n">
         <v>-83.04600000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0.044</v>
       </c>
       <c r="I7" t="n">
@@ -7562,25 +7737,25 @@
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>5.909</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>-100</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0.022</v>
       </c>
       <c r="I8" t="s">
@@ -7606,22 +7781,23 @@
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>0.007</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>0.211</v>
       </c>
       <c r="D9" t="n">
         <v>3015.427</v>
       </c>
-      <c r="F9" t="n">
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>-100</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0.022</v>
       </c>
       <c r="J9" t="n">
@@ -7641,25 +7817,25 @@
       <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>0.177</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>-100</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="2" t="n">
         <v>0.014</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="2" t="n">
         <v>0.014</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
@@ -7685,22 +7861,22 @@
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>-100</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
@@ -7723,19 +7899,19 @@
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
@@ -7758,19 +7934,19 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
@@ -7793,16 +7969,17 @@
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n"/>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
@@ -7822,19 +7999,19 @@
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
@@ -7857,19 +8034,19 @@
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
@@ -7892,16 +8069,17 @@
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
@@ -7921,19 +8099,19 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
+      <c r="B18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
@@ -7956,18 +8134,21 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>0.021</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" s="2" t="n"/>
       <c r="J19" t="n">
         <v>0</v>
       </c>
@@ -7979,12 +8160,16 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
         <v>0.019</v>
       </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
       <c r="G20" t="n">
         <v>0</v>
       </c>
+      <c r="H20" s="2" t="n"/>
       <c r="K20" t="n">
         <v>0.011</v>
       </c>
@@ -7993,9 +8178,13 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
       <c r="J21" t="n">
         <v>0</v>
       </c>
@@ -8004,9 +8193,13 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
       <c r="J22" t="n">
         <v>0</v>
       </c>
@@ -8015,18 +8208,20 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
         <v>0.004</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2" t="n">
         <v>0.024</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" s="2" t="n">
         <v>0.048</v>
       </c>
       <c r="G23" t="n">
         <v>1089.712</v>
       </c>
+      <c r="H23" s="2" t="n"/>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -8044,12 +8239,15 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
       <c r="J24" t="n">
         <v>0</v>
       </c>
@@ -8061,12 +8259,15 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
       <c r="J25" t="n">
         <v>0</v>
       </c>
@@ -8098,52 +8299,56 @@
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" width="20.21875"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="7"/>
-    <col bestFit="1" customWidth="1" max="4" min="3" width="8"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
     <col bestFit="1" customWidth="1" max="5" min="5" width="7"/>
-    <col bestFit="1" customWidth="1" max="9" min="6" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="7.5546875"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -8151,25 +8356,25 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>70.15000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>172.385</v>
       </c>
       <c r="D2" t="n">
         <v>145.739</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>54.433</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>115.587</v>
       </c>
       <c r="G2" t="n">
         <v>-32.949</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>190.054</v>
       </c>
       <c r="I2" t="n">
@@ -8195,25 +8400,25 @@
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>67.854</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>155.76</v>
       </c>
       <c r="D3" t="n">
         <v>129.551</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>52.491</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>109.08</v>
       </c>
       <c r="G3" t="n">
         <v>-29.969</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>186.32</v>
       </c>
       <c r="I3" t="n">
@@ -8239,25 +8444,25 @@
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>2.057</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>10.462</v>
       </c>
       <c r="D4" t="n">
         <v>408.709</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>1.578</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>6.051</v>
       </c>
       <c r="G4" t="n">
         <v>-42.166</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>2.851</v>
       </c>
       <c r="I4" t="n">
@@ -8283,25 +8488,25 @@
       <c r="A5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>0.062</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>0.214</v>
       </c>
       <c r="D5" t="n">
         <v>247.155</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.198</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.273</v>
       </c>
       <c r="G5" t="n">
         <v>27.415</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.822</v>
       </c>
       <c r="I5" t="n">
@@ -8327,19 +8532,20 @@
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="n"/>
+      <c r="C6" s="2" t="n">
         <v>0.012</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="2" t="n">
         <v>0.105</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="2" t="n">
         <v>0.105</v>
       </c>
       <c r="G6" t="n">
         <v>742.967</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0.053</v>
       </c>
       <c r="I6" t="n">
@@ -8362,7 +8568,11 @@
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="n">
+      <c r="B7" s="2" t="n"/>
+      <c r="C7" s="2" t="n"/>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n"/>
+      <c r="H7" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
       <c r="N7" t="n">
@@ -8373,18 +8583,20 @@
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n"/>
+      <c r="C8" s="2" t="n">
         <v>0.021</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="2" t="n">
         <v>0.047</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="2" t="n">
         <v>0.065</v>
       </c>
       <c r="G8" t="n">
         <v>209.359</v>
       </c>
+      <c r="H8" s="2" t="n"/>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -8402,12 +8614,16 @@
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="n"/>
+      <c r="C9" s="2" t="n">
         <v>5.895</v>
       </c>
+      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="2" t="n"/>
       <c r="G9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="2" t="n"/>
       <c r="K9" t="n">
         <v>3.42</v>
       </c>
@@ -8416,12 +8632,16 @@
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C10" t="n">
+      <c r="B10" s="2" t="n"/>
+      <c r="C10" s="2" t="n">
         <v>0.019</v>
       </c>
+      <c r="E10" s="2" t="n"/>
+      <c r="F10" s="2" t="n"/>
       <c r="G10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" s="2" t="n"/>
       <c r="K10" t="n">
         <v>0.011</v>
       </c>
@@ -8430,21 +8650,23 @@
       <c r="A11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>0.177</v>
       </c>
+      <c r="C11" s="2" t="n"/>
       <c r="D11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="2" t="n">
         <v>0.013</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>0.013</v>
       </c>
       <c r="G11" t="n">
         <v>-92.52</v>
       </c>
+      <c r="H11" s="2" t="n"/>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -8462,12 +8684,16 @@
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="n">
+      <c r="B12" s="2" t="n"/>
+      <c r="C12" s="2" t="n">
         <v>0.002</v>
       </c>
+      <c r="E12" s="2" t="n"/>
+      <c r="F12" s="2" t="n"/>
       <c r="G12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" s="2" t="n"/>
       <c r="K12" t="n">
         <v>0.001</v>
       </c>
@@ -8502,32 +8728,32 @@
     <col bestFit="1" customWidth="1" max="8" min="8" width="7"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:9">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -8535,19 +8761,19 @@
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="B2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
@@ -8558,19 +8784,19 @@
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
@@ -8581,16 +8807,17 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="B4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n"/>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
@@ -8601,19 +8828,19 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
@@ -8624,19 +8851,19 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
@@ -8647,16 +8874,17 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="B7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="n"/>
+      <c r="F7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
@@ -8667,16 +8895,17 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
@@ -8687,19 +8916,19 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
@@ -8710,19 +8939,19 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
@@ -8733,19 +8962,19 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
@@ -8756,19 +8985,19 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
@@ -8779,25 +9008,25 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>-100</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
@@ -8808,19 +9037,19 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
@@ -8831,19 +9060,19 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
@@ -8854,19 +9083,19 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
@@ -8877,19 +9106,19 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
@@ -8900,25 +9129,25 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>-100</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
@@ -8929,12 +9158,15 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
       <c r="I19" t="n">
         <v>0</v>
       </c>
@@ -8943,9 +9175,13 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -8954,31 +9190,41 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n"/>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
+      <c r="H21" s="2" t="n"/>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n"/>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
+      <c r="H22" s="2" t="n"/>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -8987,12 +9233,15 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
+      <c r="H24" s="2" t="n"/>
       <c r="I24" t="n">
         <v>0</v>
       </c>
@@ -9001,12 +9250,15 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
+      <c r="H25" s="2" t="n"/>
       <c r="I25" t="n">
         <v>0</v>
       </c>
@@ -9042,47 +9294,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -9090,25 +9342,25 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.013</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>0.018</v>
       </c>
       <c r="D2" t="n">
         <v>35.281</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.019</v>
       </c>
       <c r="G2" t="n">
         <v>5.646</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.005</v>
       </c>
       <c r="I2" t="n">
@@ -9134,25 +9386,25 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.006</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.006</v>
       </c>
       <c r="D3" t="n">
         <v>-0.97</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="G3" t="n">
         <v>-74.72</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.002</v>
       </c>
       <c r="I3" t="n">
@@ -9178,25 +9430,25 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.002</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.002</v>
       </c>
       <c r="D4" t="n">
         <v>23.737</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.004</v>
       </c>
       <c r="G4" t="n">
         <v>53.919</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="I4" t="n">
@@ -9222,25 +9474,25 @@
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>0.002</v>
       </c>
       <c r="D5" t="n">
         <v>485.57</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.005</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.013</v>
       </c>
       <c r="G5" t="n">
         <v>627.393</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="I5" t="n">
@@ -9266,25 +9518,25 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>3200</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-42.424</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
@@ -9310,25 +9562,25 @@
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.002</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="D7" t="n">
         <v>-45.981</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-82.238</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
@@ -9354,22 +9606,23 @@
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>-21.519</v>
       </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>-67.742</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
@@ -9389,25 +9642,25 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>-5.556</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>3.676</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
@@ -9433,25 +9686,25 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>-50</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>142.857</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
@@ -9477,25 +9730,25 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1575</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>559.701</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
@@ -9521,25 +9774,25 @@
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>-42.857</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>17.857</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
@@ -9565,22 +9818,23 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
         <v>0.006</v>
       </c>
       <c r="D13" t="n">
         <v>91.79300000000001</v>
       </c>
-      <c r="F13" t="n">
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>-99.86799999999999</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
@@ -9600,25 +9854,25 @@
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>182.857</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>-36.364</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
@@ -9644,25 +9898,25 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="D15" t="n">
         <v>1507.5</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>-97.512</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
@@ -9688,25 +9942,25 @@
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>-57.576</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>-64.286</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
@@ -9732,22 +9986,23 @@
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>-26.316</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
@@ -9767,25 +10022,25 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>300</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>657.5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
@@ -9811,15 +10066,18 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>-100</v>
       </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
       <c r="J19" t="n">
         <v>0.015</v>
       </c>
@@ -9831,9 +10089,13 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -9842,15 +10104,19 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n"/>
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" s="2" t="n"/>
       <c r="J21" t="n">
         <v>0.037</v>
       </c>
@@ -9859,15 +10125,19 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n"/>
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
       <c r="G22" t="n">
         <v>0</v>
       </c>
+      <c r="H22" s="2" t="n"/>
       <c r="J22" t="n">
         <v>0.037</v>
       </c>
@@ -9876,15 +10146,17 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -9899,18 +10171,21 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>-65.217</v>
       </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="2" t="n"/>
       <c r="J24" t="n">
         <v>0.344</v>
       </c>
@@ -9922,18 +10197,21 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>173.077</v>
       </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="2" t="n"/>
       <c r="J25" t="n">
         <v>0.194</v>
       </c>
@@ -9972,47 +10250,47 @@
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="5" spans="1:14">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10020,25 +10298,25 @@
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.013</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
         <v>0.018</v>
       </c>
       <c r="D2" t="n">
         <v>35.251</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="2" t="n">
         <v>0.008999999999999999</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.019</v>
       </c>
       <c r="G2" t="n">
         <v>5.669</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="2" t="n">
         <v>0.005</v>
       </c>
       <c r="I2" t="n">
@@ -10064,25 +10342,25 @@
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.006</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="2" t="n">
         <v>0.006</v>
       </c>
       <c r="D3" t="n">
         <v>-1.04</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="2" t="n">
         <v>0.001</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="G3" t="n">
         <v>-74.702</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="2" t="n">
         <v>0.002</v>
       </c>
       <c r="I3" t="n">
@@ -10108,25 +10386,25 @@
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.002</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
         <v>0.002</v>
       </c>
       <c r="D4" t="n">
         <v>23.737</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.004</v>
       </c>
       <c r="G4" t="n">
         <v>53.919</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="I4" t="n">
@@ -10152,25 +10430,25 @@
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>0.002</v>
       </c>
       <c r="D5" t="n">
         <v>485.57</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>0.005</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>0.013</v>
       </c>
       <c r="G5" t="n">
         <v>627.393</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="I5" t="n">
@@ -10196,25 +10474,25 @@
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>3200</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>-42.424</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
@@ -10240,25 +10518,25 @@
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>0.002</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="D7" t="n">
         <v>-45.981</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E7" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-82.238</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
@@ -10284,22 +10562,23 @@
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>-21.519</v>
       </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n"/>
+      <c r="F8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>-67.742</v>
       </c>
-      <c r="H8" t="n">
+      <c r="H8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
@@ -10319,25 +10598,25 @@
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>-5.556</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="E9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>3.676</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
@@ -10363,25 +10642,25 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>-50</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>142.857</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
@@ -10407,25 +10686,25 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1575</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E11" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>559.701</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
@@ -10451,25 +10730,25 @@
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>-42.857</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E12" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>17.857</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
@@ -10495,22 +10774,23 @@
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>0.003</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
         <v>0.006</v>
       </c>
       <c r="D13" t="n">
         <v>91.79300000000001</v>
       </c>
-      <c r="F13" t="n">
+      <c r="E13" s="2" t="n"/>
+      <c r="F13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>-99.86799999999999</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
@@ -10530,25 +10810,25 @@
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>182.857</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E14" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>-36.364</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
@@ -10574,25 +10854,25 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="n">
         <v>0.001</v>
       </c>
       <c r="D15" t="n">
         <v>1507.5</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>-97.512</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
@@ -10618,25 +10898,25 @@
       <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>-57.576</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E16" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>-64.286</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
@@ -10662,22 +10942,23 @@
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
-      <c r="F17" t="n">
+      <c r="E17" s="2" t="n"/>
+      <c r="F17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>-26.316</v>
       </c>
-      <c r="H17" t="n">
+      <c r="H17" s="2" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
@@ -10697,25 +10978,25 @@
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>300</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E18" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>657.5</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
@@ -10741,15 +11022,18 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>-100</v>
       </c>
+      <c r="E19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+      <c r="H19" s="2" t="n"/>
       <c r="J19" t="n">
         <v>0.015</v>
       </c>
@@ -10761,9 +11045,13 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
+      <c r="B20" s="2" t="n"/>
+      <c r="C20" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="n"/>
+      <c r="F20" s="2" t="n"/>
+      <c r="H20" s="2" t="n"/>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -10772,15 +11060,19 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" t="n">
-        <v>0</v>
-      </c>
+      <c r="B21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2" t="n"/>
       <c r="D21" t="n">
         <v>0</v>
       </c>
+      <c r="E21" s="2" t="n"/>
+      <c r="F21" s="2" t="n"/>
       <c r="G21" t="n">
         <v>0</v>
       </c>
+      <c r="H21" s="2" t="n"/>
       <c r="J21" t="n">
         <v>0.037</v>
       </c>
@@ -10789,15 +11081,19 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
-      </c>
+      <c r="B22" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="n"/>
       <c r="D22" t="n">
         <v>0</v>
       </c>
+      <c r="E22" s="2" t="n"/>
+      <c r="F22" s="2" t="n"/>
       <c r="G22" t="n">
         <v>0</v>
       </c>
+      <c r="H22" s="2" t="n"/>
       <c r="J22" t="n">
         <v>0.037</v>
       </c>
@@ -10806,15 +11102,17 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="C23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2" t="n"/>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -10829,18 +11127,21 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>-65.217</v>
       </c>
+      <c r="E24" s="2" t="n"/>
+      <c r="F24" s="2" t="n"/>
       <c r="G24" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="2" t="n"/>
       <c r="J24" t="n">
         <v>0.344</v>
       </c>
@@ -10852,18 +11153,21 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>173.077</v>
       </c>
+      <c r="E25" s="2" t="n"/>
+      <c r="F25" s="2" t="n"/>
       <c r="G25" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="2" t="n"/>
       <c r="J25" t="n">
         <v>0.194</v>
       </c>
